--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED2E32E-D49A-4B26-8CE8-22EDDDF431BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360ECCC-49AC-40E8-A88D-94BBDDD9857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,33 +2002,15 @@
       <c r="F4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="11">
-        <v>9</v>
-      </c>
-      <c r="H4" s="11">
-        <v>41</v>
-      </c>
-      <c r="I4" s="11">
-        <v>40</v>
-      </c>
-      <c r="J4" s="11">
-        <v>13</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <v>0</v>
-      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -2054,33 +2036,15 @@
       <c r="F5" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="11">
-        <v>14</v>
-      </c>
-      <c r="H5" s="11">
-        <v>38</v>
-      </c>
-      <c r="I5" s="11">
-        <v>49</v>
-      </c>
-      <c r="J5" s="11">
-        <v>46</v>
-      </c>
-      <c r="K5" s="11">
-        <v>11</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -2208,33 +2172,15 @@
       <c r="F9" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="11">
-        <v>23</v>
-      </c>
-      <c r="H9" s="11">
-        <v>42</v>
-      </c>
-      <c r="I9" s="11">
-        <v>20</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <v>0</v>
-      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -2260,33 +2206,15 @@
       <c r="F10" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>15</v>
-      </c>
-      <c r="I10" s="11">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11">
-        <v>38</v>
-      </c>
-      <c r="K10" s="11">
-        <v>6</v>
-      </c>
-      <c r="L10" s="11">
-        <v>3</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -2346,33 +2274,15 @@
       <c r="F12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="11">
-        <v>38</v>
-      </c>
-      <c r="H12" s="11">
-        <v>30</v>
-      </c>
-      <c r="I12" s="11">
-        <v>22</v>
-      </c>
-      <c r="J12" s="11">
-        <v>14</v>
-      </c>
-      <c r="K12" s="11">
-        <v>16</v>
-      </c>
-      <c r="L12" s="11">
-        <v>11</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0</v>
-      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
@@ -2500,33 +2410,15 @@
       <c r="F16" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="11">
-        <v>85</v>
-      </c>
-      <c r="H16" s="11">
-        <v>49</v>
-      </c>
-      <c r="I16" s="11">
-        <v>5</v>
-      </c>
-      <c r="J16" s="11">
-        <v>6</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -2552,33 +2444,15 @@
       <c r="F17" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="11">
-        <v>8</v>
-      </c>
-      <c r="H17" s="11">
-        <v>33</v>
-      </c>
-      <c r="I17" s="11">
-        <v>33</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -2706,33 +2580,15 @@
       <c r="F21" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="11">
-        <v>8</v>
-      </c>
-      <c r="H21" s="11">
-        <v>8</v>
-      </c>
-      <c r="I21" s="11">
-        <v>15</v>
-      </c>
-      <c r="J21" s="11">
-        <v>11</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0</v>
-      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2792,33 +2648,15 @@
       <c r="F23" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="11">
-        <v>8</v>
-      </c>
-      <c r="H23" s="11">
-        <v>16</v>
-      </c>
-      <c r="I23" s="11">
-        <v>16</v>
-      </c>
-      <c r="J23" s="11">
-        <v>16</v>
-      </c>
-      <c r="K23" s="11">
-        <v>2</v>
-      </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -2878,33 +2716,15 @@
       <c r="F25" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="11">
-        <v>8</v>
-      </c>
-      <c r="H25" s="11">
-        <v>16</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -3032,33 +2852,15 @@
       <c r="F29" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G29" s="11">
-        <v>3</v>
-      </c>
-      <c r="H29" s="11">
-        <v>19</v>
-      </c>
-      <c r="I29" s="11">
-        <v>16</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
-      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
@@ -3084,33 +2886,15 @@
       <c r="F30" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G30" s="11">
-        <v>3</v>
-      </c>
-      <c r="H30" s="11">
-        <v>4</v>
-      </c>
-      <c r="I30" s="11">
-        <v>13</v>
-      </c>
-      <c r="J30" s="11">
-        <v>25</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
@@ -3170,33 +2954,15 @@
       <c r="F32" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G32" s="11">
-        <v>2</v>
-      </c>
-      <c r="H32" s="11">
-        <v>18</v>
-      </c>
-      <c r="I32" s="11">
-        <v>12</v>
-      </c>
-      <c r="J32" s="11">
-        <v>24</v>
-      </c>
-      <c r="K32" s="11">
-        <v>14</v>
-      </c>
-      <c r="L32" s="11">
-        <v>4</v>
-      </c>
-      <c r="M32" s="11">
-        <v>2</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
@@ -3222,33 +2988,15 @@
       <c r="F33" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="11">
-        <v>27</v>
-      </c>
-      <c r="H33" s="11">
-        <v>36</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0</v>
-      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
@@ -3308,33 +3056,15 @@
       <c r="F35" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="11">
-        <v>8</v>
-      </c>
-      <c r="H35" s="11">
-        <v>14</v>
-      </c>
-      <c r="I35" s="11">
-        <v>37</v>
-      </c>
-      <c r="J35" s="11">
-        <v>23</v>
-      </c>
-      <c r="K35" s="11">
-        <v>7</v>
-      </c>
-      <c r="L35" s="11">
-        <v>4</v>
-      </c>
-      <c r="M35" s="11">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11">
-        <v>0</v>
-      </c>
-      <c r="O35" s="11">
-        <v>0</v>
-      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
@@ -3360,33 +3090,15 @@
       <c r="F36" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G36" s="11">
-        <v>29</v>
-      </c>
-      <c r="H36" s="11">
-        <v>49</v>
-      </c>
-      <c r="I36" s="11">
-        <v>41</v>
-      </c>
-      <c r="J36" s="11">
-        <v>11</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <v>0</v>
-      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
@@ -3412,33 +3124,15 @@
       <c r="F37" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="11">
-        <v>6</v>
-      </c>
-      <c r="H37" s="11">
-        <v>13</v>
-      </c>
-      <c r="I37" s="11">
-        <v>18</v>
-      </c>
-      <c r="J37" s="11">
-        <v>25</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
-      </c>
-      <c r="L37" s="11">
-        <v>0</v>
-      </c>
-      <c r="M37" s="11">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11">
-        <v>0</v>
-      </c>
-      <c r="O37" s="11">
-        <v>0</v>
-      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
@@ -3532,33 +3226,15 @@
       <c r="F40" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="11">
-        <v>9</v>
-      </c>
-      <c r="H40" s="11">
-        <v>33</v>
-      </c>
-      <c r="I40" s="11">
-        <v>28</v>
-      </c>
-      <c r="J40" s="11">
-        <v>22</v>
-      </c>
-      <c r="K40" s="11">
-        <v>11</v>
-      </c>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <v>0</v>
-      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
@@ -3674,33 +3350,15 @@
       <c r="F44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="11">
-        <v>9</v>
-      </c>
-      <c r="H44" s="11">
-        <v>33</v>
-      </c>
-      <c r="I44" s="11">
-        <v>40</v>
-      </c>
-      <c r="J44" s="11">
-        <v>13</v>
-      </c>
-      <c r="K44" s="11">
-        <v>3</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
-        <v>0</v>
-      </c>
-      <c r="O44" s="11">
-        <v>0</v>
-      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -3726,33 +3384,15 @@
       <c r="F45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="11">
-        <v>14</v>
-      </c>
-      <c r="H45" s="11">
-        <v>38</v>
-      </c>
-      <c r="I45" s="11">
-        <v>49</v>
-      </c>
-      <c r="J45" s="11">
-        <v>47</v>
-      </c>
-      <c r="K45" s="11">
-        <v>11</v>
-      </c>
-      <c r="L45" s="11">
-        <v>1</v>
-      </c>
-      <c r="M45" s="11">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11">
-        <v>0</v>
-      </c>
-      <c r="O45" s="11">
-        <v>0</v>
-      </c>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -3880,33 +3520,15 @@
       <c r="F49" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G49" s="11">
-        <v>26</v>
-      </c>
-      <c r="H49" s="11">
-        <v>39</v>
-      </c>
-      <c r="I49" s="11">
-        <v>22</v>
-      </c>
-      <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
-      </c>
-      <c r="L49" s="11">
-        <v>0</v>
-      </c>
-      <c r="M49" s="11">
-        <v>0</v>
-      </c>
-      <c r="N49" s="11">
-        <v>0</v>
-      </c>
-      <c r="O49" s="11">
-        <v>0</v>
-      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -3932,33 +3554,15 @@
       <c r="F50" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>7</v>
-      </c>
-      <c r="I50" s="11">
-        <v>49</v>
-      </c>
-      <c r="J50" s="11">
-        <v>42</v>
-      </c>
-      <c r="K50" s="11">
-        <v>13</v>
-      </c>
-      <c r="L50" s="11">
-        <v>1</v>
-      </c>
-      <c r="M50" s="11">
-        <v>1</v>
-      </c>
-      <c r="N50" s="11">
-        <v>0</v>
-      </c>
-      <c r="O50" s="11">
-        <v>0</v>
-      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -4018,33 +3622,15 @@
       <c r="F52" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="11">
-        <v>38</v>
-      </c>
-      <c r="H52" s="11">
-        <v>28</v>
-      </c>
-      <c r="I52" s="11">
-        <v>22</v>
-      </c>
-      <c r="J52" s="11">
-        <v>14</v>
-      </c>
-      <c r="K52" s="11">
-        <v>16</v>
-      </c>
-      <c r="L52" s="11">
-        <v>11</v>
-      </c>
-      <c r="M52" s="11">
-        <v>0</v>
-      </c>
-      <c r="N52" s="11">
-        <v>0</v>
-      </c>
-      <c r="O52" s="11">
-        <v>0</v>
-      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -4172,33 +3758,15 @@
       <c r="F56" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="11">
-        <v>95</v>
-      </c>
-      <c r="H56" s="11">
-        <v>38</v>
-      </c>
-      <c r="I56" s="11">
-        <v>4</v>
-      </c>
-      <c r="J56" s="11">
-        <v>5</v>
-      </c>
-      <c r="K56" s="11">
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <v>0</v>
-      </c>
-      <c r="N56" s="11">
-        <v>0</v>
-      </c>
-      <c r="O56" s="11">
-        <v>0</v>
-      </c>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -4224,33 +3792,15 @@
       <c r="F57" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G57" s="11">
-        <v>13</v>
-      </c>
-      <c r="H57" s="11">
-        <v>44</v>
-      </c>
-      <c r="I57" s="11">
-        <v>50</v>
-      </c>
-      <c r="J57" s="11">
-        <v>11</v>
-      </c>
-      <c r="K57" s="11">
-        <v>3</v>
-      </c>
-      <c r="L57" s="11">
-        <v>0</v>
-      </c>
-      <c r="M57" s="11">
-        <v>0</v>
-      </c>
-      <c r="N57" s="11">
-        <v>0</v>
-      </c>
-      <c r="O57" s="11">
-        <v>0</v>
-      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -4378,33 +3928,15 @@
       <c r="F61" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G61" s="11">
-        <v>8</v>
-      </c>
-      <c r="H61" s="11">
-        <v>6</v>
-      </c>
-      <c r="I61" s="11">
-        <v>15</v>
-      </c>
-      <c r="J61" s="11">
-        <v>11</v>
-      </c>
-      <c r="K61" s="11">
-        <v>2</v>
-      </c>
-      <c r="L61" s="11">
-        <v>0</v>
-      </c>
-      <c r="M61" s="11">
-        <v>0</v>
-      </c>
-      <c r="N61" s="11">
-        <v>0</v>
-      </c>
-      <c r="O61" s="11">
-        <v>0</v>
-      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
@@ -4464,33 +3996,15 @@
       <c r="F63" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G63" s="11">
-        <v>8</v>
-      </c>
-      <c r="H63" s="11">
-        <v>16</v>
-      </c>
-      <c r="I63" s="11">
-        <v>16</v>
-      </c>
-      <c r="J63" s="11">
-        <v>16</v>
-      </c>
-      <c r="K63" s="11">
-        <v>2</v>
-      </c>
-      <c r="L63" s="11">
-        <v>0</v>
-      </c>
-      <c r="M63" s="11">
-        <v>0</v>
-      </c>
-      <c r="N63" s="11">
-        <v>0</v>
-      </c>
-      <c r="O63" s="11">
-        <v>0</v>
-      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
@@ -4550,33 +4064,15 @@
       <c r="F65" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G65" s="11">
-        <v>5</v>
-      </c>
-      <c r="H65" s="11">
-        <v>11</v>
-      </c>
-      <c r="I65" s="11">
-        <v>0</v>
-      </c>
-      <c r="J65" s="11">
-        <v>0</v>
-      </c>
-      <c r="K65" s="11">
-        <v>0</v>
-      </c>
-      <c r="L65" s="11">
-        <v>0</v>
-      </c>
-      <c r="M65" s="11">
-        <v>0</v>
-      </c>
-      <c r="N65" s="11">
-        <v>0</v>
-      </c>
-      <c r="O65" s="11">
-        <v>0</v>
-      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
@@ -4704,33 +4200,15 @@
       <c r="F69" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="11">
-        <v>5</v>
-      </c>
-      <c r="H69" s="11">
-        <v>23</v>
-      </c>
-      <c r="I69" s="11">
-        <v>25</v>
-      </c>
-      <c r="J69" s="11">
-        <v>3</v>
-      </c>
-      <c r="K69" s="11">
-        <v>0</v>
-      </c>
-      <c r="L69" s="11">
-        <v>0</v>
-      </c>
-      <c r="M69" s="11">
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <v>0</v>
-      </c>
-      <c r="O69" s="11">
-        <v>0</v>
-      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
@@ -4756,33 +4234,15 @@
       <c r="F70" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G70" s="11">
-        <v>3</v>
-      </c>
-      <c r="H70" s="11">
-        <v>4</v>
-      </c>
-      <c r="I70" s="11">
-        <v>11</v>
-      </c>
-      <c r="J70" s="11">
-        <v>22</v>
-      </c>
-      <c r="K70" s="11">
-        <v>0</v>
-      </c>
-      <c r="L70" s="11">
-        <v>0</v>
-      </c>
-      <c r="M70" s="11">
-        <v>0</v>
-      </c>
-      <c r="N70" s="11">
-        <v>0</v>
-      </c>
-      <c r="O70" s="11">
-        <v>0</v>
-      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -4842,33 +4302,15 @@
       <c r="F72" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G72" s="11">
-        <v>2</v>
-      </c>
-      <c r="H72" s="11">
-        <v>9</v>
-      </c>
-      <c r="I72" s="11">
-        <v>26</v>
-      </c>
-      <c r="J72" s="11">
-        <v>18</v>
-      </c>
-      <c r="K72" s="11">
-        <v>12</v>
-      </c>
-      <c r="L72" s="11">
-        <v>2</v>
-      </c>
-      <c r="M72" s="11">
-        <v>2</v>
-      </c>
-      <c r="N72" s="11">
-        <v>0</v>
-      </c>
-      <c r="O72" s="11">
-        <v>0</v>
-      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
@@ -4894,33 +4336,15 @@
       <c r="F73" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G73" s="11">
-        <v>16</v>
-      </c>
-      <c r="H73" s="11">
-        <v>58</v>
-      </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11">
-        <v>0</v>
-      </c>
-      <c r="K73" s="11">
-        <v>0</v>
-      </c>
-      <c r="L73" s="11">
-        <v>0</v>
-      </c>
-      <c r="M73" s="11">
-        <v>0</v>
-      </c>
-      <c r="N73" s="11">
-        <v>0</v>
-      </c>
-      <c r="O73" s="11">
-        <v>0</v>
-      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
@@ -4980,33 +4404,15 @@
       <c r="F75" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G75" s="11">
-        <v>6</v>
-      </c>
-      <c r="H75" s="11">
-        <v>14</v>
-      </c>
-      <c r="I75" s="11">
-        <v>24</v>
-      </c>
-      <c r="J75" s="11">
-        <v>27</v>
-      </c>
-      <c r="K75" s="11">
-        <v>8</v>
-      </c>
-      <c r="L75" s="11">
-        <v>4</v>
-      </c>
-      <c r="M75" s="11">
-        <v>0</v>
-      </c>
-      <c r="N75" s="11">
-        <v>1</v>
-      </c>
-      <c r="O75" s="11">
-        <v>0</v>
-      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
@@ -5032,33 +4438,15 @@
       <c r="F76" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G76" s="11">
-        <v>28</v>
-      </c>
-      <c r="H76" s="11">
-        <v>58</v>
-      </c>
-      <c r="I76" s="11">
-        <v>74</v>
-      </c>
-      <c r="J76" s="11">
-        <v>28</v>
-      </c>
-      <c r="K76" s="11">
-        <v>0</v>
-      </c>
-      <c r="L76" s="11">
-        <v>0</v>
-      </c>
-      <c r="M76" s="11">
-        <v>0</v>
-      </c>
-      <c r="N76" s="11">
-        <v>0</v>
-      </c>
-      <c r="O76" s="11">
-        <v>0</v>
-      </c>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
@@ -5084,33 +4472,15 @@
       <c r="F77" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G77" s="11">
-        <v>6</v>
-      </c>
-      <c r="H77" s="11">
-        <v>13</v>
-      </c>
-      <c r="I77" s="11">
-        <v>13</v>
-      </c>
-      <c r="J77" s="11">
-        <v>13</v>
-      </c>
-      <c r="K77" s="11">
-        <v>0</v>
-      </c>
-      <c r="L77" s="11">
-        <v>0</v>
-      </c>
-      <c r="M77" s="11">
-        <v>0</v>
-      </c>
-      <c r="N77" s="11">
-        <v>0</v>
-      </c>
-      <c r="O77" s="11">
-        <v>0</v>
-      </c>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
@@ -5204,33 +4574,15 @@
       <c r="F80" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G80" s="11">
-        <v>9</v>
-      </c>
-      <c r="H80" s="11">
-        <v>70</v>
-      </c>
-      <c r="I80" s="11">
-        <v>30</v>
-      </c>
-      <c r="J80" s="11">
-        <v>22</v>
-      </c>
-      <c r="K80" s="11">
-        <v>9</v>
-      </c>
-      <c r="L80" s="11">
-        <v>1</v>
-      </c>
-      <c r="M80" s="11">
-        <v>0</v>
-      </c>
-      <c r="N80" s="11">
-        <v>0</v>
-      </c>
-      <c r="O80" s="11">
-        <v>0</v>
-      </c>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
@@ -5279,7 +4631,9 @@
         <v>20</v>
       </c>
       <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
+      <c r="H82" s="11">
+        <v>3</v>
+      </c>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
@@ -8226,7 +7580,9 @@
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
-      <c r="I169" s="11"/>
+      <c r="I169" s="11">
+        <v>3</v>
+      </c>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360ECCC-49AC-40E8-A88D-94BBDDD9857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66C05A-937E-41C8-8E19-ED5261638782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M156" sqref="M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,9 +4631,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="11"/>
-      <c r="H82" s="11">
-        <v>3</v>
-      </c>
+      <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
@@ -7254,10 +7252,16 @@
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
+      <c r="K159" s="11">
+        <v>14</v>
+      </c>
       <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
-      <c r="N159" s="11"/>
+      <c r="M159" s="11">
+        <v>27</v>
+      </c>
+      <c r="N159" s="11">
+        <v>18</v>
+      </c>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="11"/>
@@ -7580,9 +7584,7 @@
       </c>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
-      <c r="I169" s="11">
-        <v>3</v>
-      </c>
+      <c r="I169" s="11"/>
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
       <c r="L169" s="11"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66C05A-937E-41C8-8E19-ED5261638782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC90CB-C4D8-4797-A194-D2A1C95EFFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M156" sqref="M156"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P146" sqref="P146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,13 +6503,17 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
-      <c r="J137" s="11"/>
+      <c r="J137" s="11">
+        <v>15</v>
+      </c>
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
-      <c r="P137" s="11"/>
+      <c r="P137" s="11">
+        <v>3</v>
+      </c>
       <c r="Q137" s="11"/>
       <c r="R137" s="11"/>
       <c r="S137" s="11"/>
@@ -7252,16 +7256,10 @@
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="11">
-        <v>14</v>
-      </c>
+      <c r="K159" s="11"/>
       <c r="L159" s="11"/>
-      <c r="M159" s="11">
-        <v>27</v>
-      </c>
-      <c r="N159" s="11">
-        <v>18</v>
-      </c>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="11"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC90CB-C4D8-4797-A194-D2A1C95EFFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F595D-2DF2-47AD-B774-602AAD1EE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P146" sqref="P146"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6503,17 +6503,13 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
-      <c r="J137" s="11">
-        <v>15</v>
-      </c>
+      <c r="J137" s="11"/>
       <c r="K137" s="11"/>
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
-      <c r="P137" s="11">
-        <v>3</v>
-      </c>
+      <c r="P137" s="11"/>
       <c r="Q137" s="11"/>
       <c r="R137" s="11"/>
       <c r="S137" s="11"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0F595D-2DF2-47AD-B774-602AAD1EE3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBE140-26E5-44A4-9A77-C106DEC613B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1839,7 +1839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,7 +3420,9 @@
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="I46" s="11">
+        <v>20</v>
+      </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BBE140-26E5-44A4-9A77-C106DEC613B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3F120-F1DB-4BB1-90A9-F777E8B59901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,9 +3420,7 @@
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="11">
-        <v>20</v>
-      </c>
+      <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC3F120-F1DB-4BB1-90A9-F777E8B59901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750C661-BE54-45F5-918A-A8C2F4321E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K263" sqref="K263"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaSANTOS.xlsx
+++ b/core/utils/distgradeunificadaSANTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750C661-BE54-45F5-918A-A8C2F4321E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E080CBFD-82B2-4C08-B9EE-5E0FEE18DAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1838,8 +1838,8 @@
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N289" sqref="N289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
